--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hcrt-Hcrtr1.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2332876666666667</v>
+        <v>0.1159123333333333</v>
       </c>
       <c r="H2">
-        <v>0.699863</v>
+        <v>0.347737</v>
       </c>
       <c r="I2">
-        <v>0.2549609632999281</v>
+        <v>0.145323055513184</v>
       </c>
       <c r="J2">
-        <v>0.2549609632999281</v>
+        <v>0.1453230555131841</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2199456666666667</v>
+        <v>0.1031263333333333</v>
       </c>
       <c r="N2">
-        <v>0.659837</v>
+        <v>0.309379</v>
       </c>
       <c r="O2">
-        <v>0.1741526370979214</v>
+        <v>0.08997799839168681</v>
       </c>
       <c r="P2">
-        <v>0.1741526370979214</v>
+        <v>0.0899779983916868</v>
       </c>
       <c r="Q2">
-        <v>0.05131061137011111</v>
+        <v>0.01195361392477778</v>
       </c>
       <c r="R2">
-        <v>0.461795502331</v>
+        <v>0.107582525323</v>
       </c>
       <c r="S2">
-        <v>0.04440212411570885</v>
+        <v>0.01307587765524029</v>
       </c>
       <c r="T2">
-        <v>0.04440212411570885</v>
+        <v>0.01307587765524029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2332876666666667</v>
+        <v>0.1159123333333333</v>
       </c>
       <c r="H3">
-        <v>0.699863</v>
+        <v>0.347737</v>
       </c>
       <c r="I3">
-        <v>0.2549609632999281</v>
+        <v>0.145323055513184</v>
       </c>
       <c r="J3">
-        <v>0.2549609632999281</v>
+        <v>0.1453230555131841</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.157907</v>
       </c>
       <c r="O3">
-        <v>0.0416768390772592</v>
+        <v>0.04592475828041363</v>
       </c>
       <c r="P3">
-        <v>0.04167683907725921</v>
+        <v>0.04592475828041363</v>
       </c>
       <c r="Q3">
-        <v>0.01227925186011111</v>
+        <v>0.006101122939888889</v>
       </c>
       <c r="R3">
-        <v>0.110513266741</v>
+        <v>0.054910106459</v>
       </c>
       <c r="S3">
-        <v>0.01062596703843409</v>
+        <v>0.006673926197014107</v>
       </c>
       <c r="T3">
-        <v>0.01062596703843409</v>
+        <v>0.006673926197014108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2332876666666667</v>
+        <v>0.1159123333333333</v>
       </c>
       <c r="H4">
-        <v>0.699863</v>
+        <v>0.347737</v>
       </c>
       <c r="I4">
-        <v>0.2549609632999281</v>
+        <v>0.145323055513184</v>
       </c>
       <c r="J4">
-        <v>0.2549609632999281</v>
+        <v>0.1453230555131841</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9903663333333333</v>
+        <v>0.9903663333333332</v>
       </c>
       <c r="N4">
         <v>2.971099</v>
       </c>
       <c r="O4">
-        <v>0.7841705238248192</v>
+        <v>0.8640972433278996</v>
       </c>
       <c r="P4">
-        <v>0.7841705238248194</v>
+        <v>0.8640972433278995</v>
       </c>
       <c r="Q4">
-        <v>0.2310402510485556</v>
+        <v>0.1147956725514444</v>
       </c>
       <c r="R4">
-        <v>2.079362259437</v>
+        <v>1.033161052963</v>
       </c>
       <c r="S4">
-        <v>0.1999328721457851</v>
+        <v>0.1255732516609296</v>
       </c>
       <c r="T4">
-        <v>0.1999328721457852</v>
+        <v>0.1255732516609296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.777485</v>
       </c>
       <c r="I5">
-        <v>0.647540001187622</v>
+        <v>0.7428302174598961</v>
       </c>
       <c r="J5">
-        <v>0.647540001187622</v>
+        <v>0.7428302174598962</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2199456666666667</v>
+        <v>0.1031263333333333</v>
       </c>
       <c r="N5">
-        <v>0.659837</v>
+        <v>0.309379</v>
       </c>
       <c r="O5">
-        <v>0.1741526370979214</v>
+        <v>0.08997799839168681</v>
       </c>
       <c r="P5">
-        <v>0.1741526370979214</v>
+        <v>0.0899779983916868</v>
       </c>
       <c r="Q5">
-        <v>0.1303167077716667</v>
+        <v>0.06110183686833334</v>
       </c>
       <c r="R5">
-        <v>1.172850369945</v>
+        <v>0.549916531815</v>
       </c>
       <c r="S5">
-        <v>0.1127707988332156</v>
+        <v>0.06683837611190289</v>
       </c>
       <c r="T5">
-        <v>0.1127707988332156</v>
+        <v>0.06683837611190289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.777485</v>
       </c>
       <c r="I6">
-        <v>0.647540001187622</v>
+        <v>0.7428302174598961</v>
       </c>
       <c r="J6">
-        <v>0.647540001187622</v>
+        <v>0.7428302174598962</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.157907</v>
       </c>
       <c r="O6">
-        <v>0.0416768390772592</v>
+        <v>0.04592475828041363</v>
       </c>
       <c r="P6">
-        <v>0.04167683907725921</v>
+        <v>0.04592475828041363</v>
       </c>
       <c r="Q6">
         <v>0.03118636932166666</v>
@@ -818,10 +818,10 @@
         <v>0.280677323895</v>
       </c>
       <c r="S6">
-        <v>0.02698742042558475</v>
+        <v>0.03411429818023282</v>
       </c>
       <c r="T6">
-        <v>0.02698742042558476</v>
+        <v>0.03411429818023282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.777485</v>
       </c>
       <c r="I7">
-        <v>0.647540001187622</v>
+        <v>0.7428302174598961</v>
       </c>
       <c r="J7">
-        <v>0.647540001187622</v>
+        <v>0.7428302174598962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9903663333333333</v>
+        <v>0.9903663333333332</v>
       </c>
       <c r="N7">
         <v>2.971099</v>
       </c>
       <c r="O7">
-        <v>0.7841705238248192</v>
+        <v>0.8640972433278996</v>
       </c>
       <c r="P7">
-        <v>0.7841705238248194</v>
+        <v>0.8640972433278995</v>
       </c>
       <c r="Q7">
         <v>0.5867871006683333</v>
       </c>
       <c r="R7">
-        <v>5.281083906015001</v>
+        <v>5.281083906015</v>
       </c>
       <c r="S7">
-        <v>0.5077817819288216</v>
+        <v>0.6418775431677604</v>
       </c>
       <c r="T7">
-        <v>0.5077817819288217</v>
+        <v>0.6418775431677605</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.267633</v>
       </c>
       <c r="I8">
-        <v>0.0974990355124498</v>
+        <v>0.1118467270269197</v>
       </c>
       <c r="J8">
-        <v>0.09749903551244982</v>
+        <v>0.1118467270269197</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2199456666666667</v>
+        <v>0.1031263333333333</v>
       </c>
       <c r="N8">
-        <v>0.659837</v>
+        <v>0.309379</v>
       </c>
       <c r="O8">
-        <v>0.1741526370979214</v>
+        <v>0.08997799839168681</v>
       </c>
       <c r="P8">
-        <v>0.1741526370979214</v>
+        <v>0.0899779983916868</v>
       </c>
       <c r="Q8">
-        <v>0.019621572869</v>
+        <v>0.009200003323</v>
       </c>
       <c r="R8">
-        <v>0.176594155821</v>
+        <v>0.08280002990700001</v>
       </c>
       <c r="S8">
-        <v>0.01697971414899703</v>
+        <v>0.01006374462454362</v>
       </c>
       <c r="T8">
-        <v>0.01697971414899703</v>
+        <v>0.01006374462454362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.267633</v>
       </c>
       <c r="I9">
-        <v>0.0974990355124498</v>
+        <v>0.1118467270269197</v>
       </c>
       <c r="J9">
-        <v>0.09749903551244982</v>
+        <v>0.1118467270269197</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.157907</v>
       </c>
       <c r="O9">
-        <v>0.0416768390772592</v>
+        <v>0.04592475828041363</v>
       </c>
       <c r="P9">
-        <v>0.04167683907725921</v>
+        <v>0.04592475828041363</v>
       </c>
       <c r="Q9">
         <v>0.004695680458999999</v>
@@ -1004,10 +1004,10 @@
         <v>0.042261124131</v>
       </c>
       <c r="S9">
-        <v>0.00406345161324035</v>
+        <v>0.005136533903166694</v>
       </c>
       <c r="T9">
-        <v>0.004063451613240352</v>
+        <v>0.005136533903166695</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.267633</v>
       </c>
       <c r="I10">
-        <v>0.0974990355124498</v>
+        <v>0.1118467270269197</v>
       </c>
       <c r="J10">
-        <v>0.09749903551244982</v>
+        <v>0.1118467270269197</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9903663333333333</v>
+        <v>0.9903663333333332</v>
       </c>
       <c r="N10">
         <v>2.971099</v>
       </c>
       <c r="O10">
-        <v>0.7841705238248192</v>
+        <v>0.8640972433278996</v>
       </c>
       <c r="P10">
-        <v>0.7841705238248194</v>
+        <v>0.8640972433278995</v>
       </c>
       <c r="Q10">
-        <v>0.088351570963</v>
+        <v>0.08835157096299999</v>
       </c>
       <c r="R10">
-        <v>0.7951641386670001</v>
+        <v>0.795164138667</v>
       </c>
       <c r="S10">
-        <v>0.07645586975021242</v>
+        <v>0.09664644849920941</v>
       </c>
       <c r="T10">
-        <v>0.07645586975021244</v>
+        <v>0.09664644849920942</v>
       </c>
     </row>
   </sheetData>
